--- a/task_1.xlsx
+++ b/task_1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\trening\Aston\test\Aston_QA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3092C191-0E64-4F1C-96C6-CBBBDBDA05E3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{329F95EB-1AB7-440D-A556-127DC5E9B1BD}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="26">
   <si>
     <t>Идентификатор деффекта</t>
   </si>
@@ -91,16 +91,41 @@
   </si>
   <si>
     <t>Не должно быть ээфекта перетягивания изображения</t>
+  </si>
+  <si>
+    <t>Перейти по сылке https://testdrive.andersenlab.com/</t>
+  </si>
+  <si>
+    <t>Отсутсвует favicon и title сайта</t>
+  </si>
+  <si>
+    <t>Отсутствует картинка favicon и название (заголовок) сайта</t>
+  </si>
+  <si>
+    <t xml:space="preserve">favicon - https://testdrive.andersenlab.com/img/mb-logo.jpg
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">favicon размером 32 х 32 рх,
+название (заголовок) сайта - Mersedes Benz Test Drive Event </t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -144,10 +169,11 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -161,8 +187,12 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Гиперссылка" xfId="1" builtinId="8"/>
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -443,8 +473,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:I20"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G9" sqref="G9"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="H3" sqref="H3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -457,7 +487,7 @@
     <col min="6" max="6" width="30.5546875" customWidth="1"/>
     <col min="7" max="7" width="26.88671875" customWidth="1"/>
     <col min="8" max="8" width="26.21875" customWidth="1"/>
-    <col min="9" max="9" width="10.21875" customWidth="1"/>
+    <col min="9" max="9" width="30.33203125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
@@ -552,170 +582,182 @@
       </c>
       <c r="I4" s="2"/>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A5" s="2"/>
-      <c r="B5" s="2"/>
-      <c r="C5" s="2"/>
-      <c r="D5" s="2"/>
-      <c r="E5" s="2"/>
-      <c r="F5" s="2"/>
-      <c r="G5" s="2"/>
-      <c r="H5" s="2"/>
-      <c r="I5" s="2"/>
+    <row r="5" spans="1:9" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A5" s="3">
+        <v>4</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="C5" s="3"/>
+      <c r="D5" s="3"/>
+      <c r="E5" s="3"/>
+      <c r="F5" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="G5" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="H5" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="I5" s="3" t="s">
+        <v>24</v>
+      </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A6" s="2"/>
-      <c r="B6" s="2"/>
-      <c r="C6" s="2"/>
-      <c r="D6" s="2"/>
-      <c r="E6" s="2"/>
-      <c r="F6" s="2"/>
-      <c r="G6" s="2"/>
-      <c r="H6" s="2"/>
-      <c r="I6" s="2"/>
+      <c r="A6" s="3"/>
+      <c r="B6" s="3"/>
+      <c r="C6" s="3"/>
+      <c r="D6" s="3"/>
+      <c r="E6" s="3"/>
+      <c r="F6" s="3"/>
+      <c r="G6" s="3"/>
+      <c r="H6" s="3"/>
+      <c r="I6" s="3"/>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A7" s="2"/>
-      <c r="B7" s="2"/>
-      <c r="C7" s="2"/>
-      <c r="D7" s="2"/>
-      <c r="E7" s="2"/>
-      <c r="F7" s="2"/>
-      <c r="G7" s="2"/>
-      <c r="H7" s="2"/>
-      <c r="I7" s="2"/>
+      <c r="A7" s="3"/>
+      <c r="B7" s="3"/>
+      <c r="C7" s="3"/>
+      <c r="D7" s="3"/>
+      <c r="E7" s="3"/>
+      <c r="F7" s="3"/>
+      <c r="G7" s="3"/>
+      <c r="H7" s="3"/>
+      <c r="I7" s="3"/>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A8" s="2"/>
-      <c r="B8" s="2"/>
-      <c r="C8" s="2"/>
-      <c r="D8" s="2"/>
-      <c r="E8" s="2"/>
-      <c r="F8" s="2"/>
-      <c r="G8" s="2"/>
-      <c r="H8" s="2"/>
-      <c r="I8" s="2"/>
+      <c r="A8" s="3"/>
+      <c r="B8" s="3"/>
+      <c r="C8" s="3"/>
+      <c r="D8" s="3"/>
+      <c r="E8" s="3"/>
+      <c r="F8" s="3"/>
+      <c r="G8" s="3"/>
+      <c r="H8" s="3"/>
+      <c r="I8" s="3"/>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A9" s="2"/>
-      <c r="B9" s="2"/>
-      <c r="C9" s="2"/>
-      <c r="D9" s="2"/>
-      <c r="E9" s="2"/>
-      <c r="F9" s="2"/>
-      <c r="G9" s="2"/>
-      <c r="H9" s="2"/>
-      <c r="I9" s="2"/>
+      <c r="A9" s="3"/>
+      <c r="B9" s="3"/>
+      <c r="C9" s="3"/>
+      <c r="D9" s="3"/>
+      <c r="E9" s="3"/>
+      <c r="F9" s="3"/>
+      <c r="G9" s="3"/>
+      <c r="H9" s="3"/>
+      <c r="I9" s="3"/>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A10" s="2"/>
-      <c r="B10" s="2"/>
-      <c r="C10" s="2"/>
-      <c r="D10" s="2"/>
-      <c r="E10" s="2"/>
-      <c r="F10" s="2"/>
-      <c r="G10" s="2"/>
-      <c r="H10" s="2"/>
-      <c r="I10" s="2"/>
+      <c r="A10" s="3"/>
+      <c r="B10" s="3"/>
+      <c r="C10" s="3"/>
+      <c r="D10" s="3"/>
+      <c r="E10" s="3"/>
+      <c r="F10" s="3"/>
+      <c r="G10" s="3"/>
+      <c r="H10" s="3"/>
+      <c r="I10" s="3"/>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A11" s="2"/>
-      <c r="B11" s="2"/>
-      <c r="C11" s="2"/>
-      <c r="D11" s="2"/>
-      <c r="E11" s="2"/>
-      <c r="F11" s="2"/>
-      <c r="G11" s="2"/>
-      <c r="H11" s="2"/>
-      <c r="I11" s="2"/>
+      <c r="A11" s="3"/>
+      <c r="B11" s="3"/>
+      <c r="C11" s="3"/>
+      <c r="D11" s="3"/>
+      <c r="E11" s="3"/>
+      <c r="F11" s="3"/>
+      <c r="G11" s="3"/>
+      <c r="H11" s="3"/>
+      <c r="I11" s="3"/>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A12" s="2"/>
-      <c r="B12" s="2"/>
-      <c r="C12" s="2"/>
-      <c r="D12" s="2"/>
-      <c r="E12" s="2"/>
-      <c r="F12" s="2"/>
-      <c r="G12" s="2"/>
-      <c r="H12" s="2"/>
-      <c r="I12" s="2"/>
+      <c r="A12" s="3"/>
+      <c r="B12" s="3"/>
+      <c r="C12" s="3"/>
+      <c r="D12" s="3"/>
+      <c r="E12" s="3"/>
+      <c r="F12" s="3"/>
+      <c r="G12" s="3"/>
+      <c r="H12" s="3"/>
+      <c r="I12" s="3"/>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A13" s="2"/>
-      <c r="B13" s="2"/>
-      <c r="C13" s="2"/>
-      <c r="D13" s="2"/>
-      <c r="E13" s="2"/>
-      <c r="F13" s="2"/>
-      <c r="G13" s="2"/>
-      <c r="H13" s="2"/>
-      <c r="I13" s="2"/>
+      <c r="A13" s="3"/>
+      <c r="B13" s="3"/>
+      <c r="C13" s="3"/>
+      <c r="D13" s="3"/>
+      <c r="E13" s="3"/>
+      <c r="F13" s="3"/>
+      <c r="G13" s="3"/>
+      <c r="H13" s="3"/>
+      <c r="I13" s="3"/>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A14" s="2"/>
-      <c r="B14" s="2"/>
-      <c r="C14" s="2"/>
-      <c r="D14" s="2"/>
-      <c r="E14" s="2"/>
-      <c r="F14" s="2"/>
-      <c r="G14" s="2"/>
-      <c r="H14" s="2"/>
-      <c r="I14" s="2"/>
+      <c r="A14" s="3"/>
+      <c r="B14" s="3"/>
+      <c r="C14" s="3"/>
+      <c r="D14" s="3"/>
+      <c r="E14" s="3"/>
+      <c r="F14" s="3"/>
+      <c r="G14" s="3"/>
+      <c r="H14" s="3"/>
+      <c r="I14" s="3"/>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A15" s="2"/>
-      <c r="B15" s="2"/>
-      <c r="C15" s="2"/>
-      <c r="D15" s="2"/>
-      <c r="E15" s="2"/>
-      <c r="F15" s="2"/>
-      <c r="G15" s="2"/>
-      <c r="H15" s="2"/>
-      <c r="I15" s="2"/>
+      <c r="A15" s="3"/>
+      <c r="B15" s="3"/>
+      <c r="C15" s="3"/>
+      <c r="D15" s="3"/>
+      <c r="E15" s="3"/>
+      <c r="F15" s="3"/>
+      <c r="G15" s="3"/>
+      <c r="H15" s="3"/>
+      <c r="I15" s="3"/>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A16" s="2"/>
-      <c r="B16" s="2"/>
-      <c r="C16" s="2"/>
-      <c r="D16" s="2"/>
-      <c r="E16" s="2"/>
-      <c r="F16" s="2"/>
-      <c r="G16" s="2"/>
-      <c r="H16" s="2"/>
-      <c r="I16" s="2"/>
+      <c r="A16" s="3"/>
+      <c r="B16" s="3"/>
+      <c r="C16" s="3"/>
+      <c r="D16" s="3"/>
+      <c r="E16" s="3"/>
+      <c r="F16" s="3"/>
+      <c r="G16" s="3"/>
+      <c r="H16" s="3"/>
+      <c r="I16" s="3"/>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A17" s="2"/>
-      <c r="B17" s="2"/>
-      <c r="C17" s="2"/>
-      <c r="D17" s="2"/>
-      <c r="E17" s="2"/>
-      <c r="F17" s="2"/>
-      <c r="G17" s="2"/>
-      <c r="H17" s="2"/>
-      <c r="I17" s="2"/>
+      <c r="A17" s="3"/>
+      <c r="B17" s="3"/>
+      <c r="C17" s="3"/>
+      <c r="D17" s="3"/>
+      <c r="E17" s="3"/>
+      <c r="F17" s="3"/>
+      <c r="G17" s="3"/>
+      <c r="H17" s="3"/>
+      <c r="I17" s="3"/>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A18" s="2"/>
-      <c r="B18" s="2"/>
-      <c r="C18" s="2"/>
-      <c r="D18" s="2"/>
-      <c r="E18" s="2"/>
-      <c r="F18" s="2"/>
-      <c r="G18" s="2"/>
-      <c r="H18" s="2"/>
-      <c r="I18" s="2"/>
+      <c r="A18" s="3"/>
+      <c r="B18" s="3"/>
+      <c r="C18" s="3"/>
+      <c r="D18" s="3"/>
+      <c r="E18" s="3"/>
+      <c r="F18" s="3"/>
+      <c r="G18" s="3"/>
+      <c r="H18" s="3"/>
+      <c r="I18" s="3"/>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A19" s="2"/>
-      <c r="B19" s="2"/>
-      <c r="C19" s="2"/>
-      <c r="D19" s="2"/>
-      <c r="E19" s="2"/>
-      <c r="F19" s="2"/>
-      <c r="G19" s="2"/>
-      <c r="H19" s="2"/>
-      <c r="I19" s="2"/>
+      <c r="A19" s="3"/>
+      <c r="B19" s="3"/>
+      <c r="C19" s="3"/>
+      <c r="D19" s="3"/>
+      <c r="E19" s="3"/>
+      <c r="F19" s="3"/>
+      <c r="G19" s="3"/>
+      <c r="H19" s="3"/>
+      <c r="I19" s="3"/>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A20" s="1"/>
@@ -729,7 +771,10 @@
       <c r="I20" s="1"/>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="F5" r:id="rId1" display="https://testdrive.andersenlab.com/" xr:uid="{3800D95D-B079-4EB9-B14D-C1544F5582C6}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
 </worksheet>
 </file>
--- a/task_1.xlsx
+++ b/task_1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\trening\Aston\test\Aston_QA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{329F95EB-1AB7-440D-A556-127DC5E9B1BD}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E5535DEF-360D-49FA-823E-89FF6A788D3C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="41">
   <si>
     <t>Идентификатор деффекта</t>
   </si>
@@ -67,9 +67,6 @@
 2. Быстро на срелку предыдущий слайдер </t>
   </si>
   <si>
-    <t>Навести курсор мыши на кнопку "Continue"</t>
-  </si>
-  <si>
     <t>Отсутствует hover эффект</t>
   </si>
   <si>
@@ -83,9 +80,6 @@
     <t>Происходит эффект перетягивания изображения</t>
   </si>
   <si>
-    <t xml:space="preserve">На главной странице при наведении курсора мыши на кнопку "Continue" отсутствует  hover эффект </t>
-  </si>
-  <si>
     <t>Например, цветовое изменение background 
 (согласовать hover эффект с бизнес-аналитиком или дизайнером)</t>
   </si>
@@ -108,6 +102,72 @@
   <si>
     <t xml:space="preserve">favicon размером 32 х 32 рх,
 название (заголовок) сайта - Mersedes Benz Test Drive Event </t>
+  </si>
+  <si>
+    <t>https://github.com/DmitriiTMS/Aston_QA/blob/task_1/video/id-1.mkv</t>
+  </si>
+  <si>
+    <t>https://github.com/DmitriiTMS/Aston_QA/blob/task_1/video/id-3.mkv</t>
+  </si>
+  <si>
+    <t>При переходе на следующий шаг регисрации отсутсвует возможность возврата на предыдущий шаг</t>
+  </si>
+  <si>
+    <t xml:space="preserve">На всех страницах при наведении курсора мыши на кнопку-ссылку "Continue" отсутствует  hover эффект </t>
+  </si>
+  <si>
+    <t>Нажать на кнопку-ссылку "Continue"</t>
+  </si>
+  <si>
+    <t>Навести курсор мыши на кнопку-ссылку "Continue"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+1.Находясь на шаге 1 нажать кнопку-ссылку "Continue"
+2. Находясь на шаге 2 нет возможности вернуться на 1 шаг: отстутвует кнопка "Назад" и заблоуирована кнопка-стрелка назад в браузере
+Те же условия и на последующих шагах</t>
+  </si>
+  <si>
+    <t>Например:
+находясь на странице с шагом 2 нельзя вернуться на страницу с шагом 1.
+То же условие и на последующих шагах</t>
+  </si>
+  <si>
+    <t>На каждой странице, кроме страницы с шагом 1, должна быть кнопка "Назад" или возможность использовать браузерный вариант возврата назад (кнопка-стрелка браузера)</t>
+  </si>
+  <si>
+    <t>На странице с формой заполнения данных пользователя (страница с шагом 4) отстутвует валидация полей</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1. Нажать на кнопку-ссылку "Continue" при не заполненных полях
+2. Ввести в поля "Last name", "First name", "Middle name" специальные символы(!?@ и т.д), цифры
+3. Ввести в поле "Age" буквы и специальные символы
+4. Ввести в поле "Phone number" буквы и специальные символы
+</t>
+  </si>
+  <si>
+    <t>1. При не заполненных полях при нажатии на кнопку-ссылку "Continue" происходит переход к странице с шагом 5
+2.В поля "Last name", "First name", "Middle name" можно внести данные любого типа
+3.  В поле "Age" можно внести данные любого типа.
+3.  В поле "Phone number" можно внести данные любого типа и в любом формате</t>
+  </si>
+  <si>
+    <t>1. При не заполненных полях и нажатии на кнопку-ссылку "Continue" вокруг незаполненных полей вместо белой рамки должна появлятся рамка красного цвета и под каждым полем появляться надпись красного цвета с font-size 11px  с текстом "This field is required"
+2. В поля  "Last name", "First name", "Middle name" необходимо оставить возможность вносить буквы русского и латинского алфавитов, ограничить размер до 200 символов. При вводе иных символов под каждым полем появляться надпись красного цвета с font-size 11px  с текстом "Invalid characters entered" и вместо белой рамки должна появлятся рамка красного цвета
+3. В поле "Age" необходимо оставить возможность вносить только цифры, ограничить размер до 3 символов (вдруг кто-то 100 и более захочет покататься))))))). При вводе иных символов под каждым полем появляться надпись красного цвета с font-size 11px  с текстом "Invalid characters entered" и вместо белой рамки должна появлятся рамка красного цвета
+4. В поле "Phone number" нужно оставить возможность внесения только цифр,ограничить размер до 30 символов. При вводе иных символов под каждым полем должна появляться надпись красного цвета с font-size 11px  с текстом "Invalid characters entered" и вместо белой рамки должна появлятся рамка красного цвета</t>
+  </si>
+  <si>
+    <t>Средняя</t>
+  </si>
+  <si>
+    <t>Низкая</t>
+  </si>
+  <si>
+    <t>Высокая</t>
+  </si>
+  <si>
+    <t>Критическая</t>
   </si>
 </sst>
 </file>
@@ -179,9 +239,6 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -189,6 +246,9 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -473,8 +533,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:I20"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="H3" sqref="H3"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -484,280 +544,318 @@
     <col min="3" max="3" width="14.77734375" customWidth="1"/>
     <col min="4" max="4" width="13.44140625" customWidth="1"/>
     <col min="5" max="5" width="16.5546875" customWidth="1"/>
-    <col min="6" max="6" width="30.5546875" customWidth="1"/>
+    <col min="6" max="6" width="36.44140625" customWidth="1"/>
     <col min="7" max="7" width="26.88671875" customWidth="1"/>
-    <col min="8" max="8" width="26.21875" customWidth="1"/>
+    <col min="8" max="8" width="52.21875" customWidth="1"/>
     <col min="9" max="9" width="30.33203125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A1" s="4" t="s">
+      <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="B1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="C1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="D1" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="4" t="s">
+      <c r="E1" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="4" t="s">
+      <c r="F1" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="4" t="s">
+      <c r="G1" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="4" t="s">
+      <c r="H1" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="4" t="s">
+      <c r="I1" s="3" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:9" ht="86.4" x14ac:dyDescent="0.3">
-      <c r="A2" s="3">
+    <row r="2" spans="1:9" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A2" s="2">
         <v>1</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="B2" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="C2" s="3"/>
-      <c r="D2" s="3"/>
-      <c r="E2" s="3"/>
-      <c r="F2" s="3" t="s">
+      <c r="C2" s="2"/>
+      <c r="D2" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="E2" s="2"/>
+      <c r="F2" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="G2" s="3" t="s">
+      <c r="G2" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="H2" s="3" t="s">
+      <c r="H2" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="I2" s="3"/>
-    </row>
-    <row r="3" spans="1:9" ht="72" x14ac:dyDescent="0.3">
-      <c r="A3" s="3">
+      <c r="I2" s="4" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A3" s="2">
         <v>2</v>
       </c>
-      <c r="B3" s="3" t="s">
+      <c r="B3" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="C3" s="2"/>
+      <c r="D3" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="E3" s="2"/>
+      <c r="F3" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="I3" s="2"/>
+    </row>
+    <row r="4" spans="1:9" ht="72" x14ac:dyDescent="0.3">
+      <c r="A4" s="2">
+        <v>3</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C4" s="2"/>
+      <c r="D4" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="E4" s="2"/>
+      <c r="F4" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="G4" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="H4" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="C3" s="3"/>
-      <c r="D3" s="3"/>
-      <c r="E3" s="3"/>
-      <c r="F3" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="G3" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="H3" s="3" t="s">
+      <c r="I4" s="4" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A5" s="2">
+        <v>4</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="C5" s="2"/>
+      <c r="D5" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="E5" s="2"/>
+      <c r="F5" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="I3" s="3"/>
-    </row>
-    <row r="4" spans="1:9" ht="72" x14ac:dyDescent="0.3">
-      <c r="A4" s="3">
-        <v>3</v>
-      </c>
-      <c r="B4" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="C4" s="3"/>
-      <c r="D4" s="3"/>
-      <c r="E4" s="3"/>
-      <c r="F4" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="G4" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="H4" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="I4" s="2"/>
-    </row>
-    <row r="5" spans="1:9" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A5" s="3">
-        <v>4</v>
-      </c>
-      <c r="B5" s="3" t="s">
+      <c r="G5" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="H5" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="I5" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="C5" s="3"/>
-      <c r="D5" s="3"/>
-      <c r="E5" s="3"/>
-      <c r="F5" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="G5" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="H5" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="I5" s="3" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A6" s="3"/>
-      <c r="B6" s="3"/>
-      <c r="C6" s="3"/>
-      <c r="D6" s="3"/>
-      <c r="E6" s="3"/>
-      <c r="F6" s="3"/>
-      <c r="G6" s="3"/>
-      <c r="H6" s="3"/>
-      <c r="I6" s="3"/>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A7" s="3"/>
-      <c r="B7" s="3"/>
-      <c r="C7" s="3"/>
-      <c r="D7" s="3"/>
-      <c r="E7" s="3"/>
-      <c r="F7" s="3"/>
-      <c r="G7" s="3"/>
-      <c r="H7" s="3"/>
-      <c r="I7" s="3"/>
+    </row>
+    <row r="6" spans="1:9" ht="115.2" x14ac:dyDescent="0.3">
+      <c r="A6" s="2">
+        <v>5</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="E6" s="2"/>
+      <c r="F6" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="G6" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="H6" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="I6" s="2"/>
+    </row>
+    <row r="7" spans="1:9" ht="360" x14ac:dyDescent="0.3">
+      <c r="A7" s="2">
+        <v>6</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="C7" s="2"/>
+      <c r="D7" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="E7" s="2"/>
+      <c r="F7" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="G7" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="H7" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="I7" s="2"/>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A8" s="3"/>
-      <c r="B8" s="3"/>
-      <c r="C8" s="3"/>
-      <c r="D8" s="3"/>
-      <c r="E8" s="3"/>
-      <c r="F8" s="3"/>
-      <c r="G8" s="3"/>
-      <c r="H8" s="3"/>
-      <c r="I8" s="3"/>
+      <c r="A8" s="2"/>
+      <c r="B8" s="2"/>
+      <c r="C8" s="2"/>
+      <c r="D8" s="2"/>
+      <c r="E8" s="2"/>
+      <c r="F8" s="2"/>
+      <c r="G8" s="2"/>
+      <c r="H8" s="2"/>
+      <c r="I8" s="2"/>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A9" s="3"/>
-      <c r="B9" s="3"/>
-      <c r="C9" s="3"/>
-      <c r="D9" s="3"/>
-      <c r="E9" s="3"/>
-      <c r="F9" s="3"/>
-      <c r="G9" s="3"/>
-      <c r="H9" s="3"/>
-      <c r="I9" s="3"/>
+      <c r="A9" s="2"/>
+      <c r="B9" s="2"/>
+      <c r="C9" s="2"/>
+      <c r="D9" s="2"/>
+      <c r="E9" s="2"/>
+      <c r="F9" s="2"/>
+      <c r="G9" s="2"/>
+      <c r="H9" s="2"/>
+      <c r="I9" s="2"/>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A10" s="3"/>
-      <c r="B10" s="3"/>
-      <c r="C10" s="3"/>
-      <c r="D10" s="3"/>
-      <c r="E10" s="3"/>
-      <c r="F10" s="3"/>
-      <c r="G10" s="3"/>
-      <c r="H10" s="3"/>
-      <c r="I10" s="3"/>
+      <c r="A10" s="2"/>
+      <c r="B10" s="2"/>
+      <c r="C10" s="2"/>
+      <c r="D10" s="2"/>
+      <c r="E10" s="2"/>
+      <c r="F10" s="2"/>
+      <c r="G10" s="2"/>
+      <c r="H10" s="2"/>
+      <c r="I10" s="2"/>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A11" s="3"/>
-      <c r="B11" s="3"/>
-      <c r="C11" s="3"/>
-      <c r="D11" s="3"/>
-      <c r="E11" s="3"/>
-      <c r="F11" s="3"/>
-      <c r="G11" s="3"/>
-      <c r="H11" s="3"/>
-      <c r="I11" s="3"/>
+      <c r="A11" s="2"/>
+      <c r="B11" s="2"/>
+      <c r="C11" s="2"/>
+      <c r="D11" s="2"/>
+      <c r="E11" s="2"/>
+      <c r="F11" s="2"/>
+      <c r="G11" s="2"/>
+      <c r="H11" s="2"/>
+      <c r="I11" s="2"/>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A12" s="3"/>
-      <c r="B12" s="3"/>
-      <c r="C12" s="3"/>
-      <c r="D12" s="3"/>
-      <c r="E12" s="3"/>
-      <c r="F12" s="3"/>
-      <c r="G12" s="3"/>
-      <c r="H12" s="3"/>
-      <c r="I12" s="3"/>
+      <c r="A12" s="2"/>
+      <c r="B12" s="2"/>
+      <c r="C12" s="2"/>
+      <c r="D12" s="2"/>
+      <c r="E12" s="2"/>
+      <c r="F12" s="2"/>
+      <c r="G12" s="2"/>
+      <c r="H12" s="2"/>
+      <c r="I12" s="2"/>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A13" s="3"/>
-      <c r="B13" s="3"/>
-      <c r="C13" s="3"/>
-      <c r="D13" s="3"/>
-      <c r="E13" s="3"/>
-      <c r="F13" s="3"/>
-      <c r="G13" s="3"/>
-      <c r="H13" s="3"/>
-      <c r="I13" s="3"/>
+      <c r="A13" s="2"/>
+      <c r="B13" s="2"/>
+      <c r="C13" s="2"/>
+      <c r="D13" s="2"/>
+      <c r="E13" s="2"/>
+      <c r="F13" s="2"/>
+      <c r="G13" s="2"/>
+      <c r="H13" s="2"/>
+      <c r="I13" s="2"/>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A14" s="3"/>
-      <c r="B14" s="3"/>
-      <c r="C14" s="3"/>
-      <c r="D14" s="3"/>
-      <c r="E14" s="3"/>
-      <c r="F14" s="3"/>
-      <c r="G14" s="3"/>
-      <c r="H14" s="3"/>
-      <c r="I14" s="3"/>
+      <c r="A14" s="2"/>
+      <c r="B14" s="2"/>
+      <c r="C14" s="2"/>
+      <c r="D14" s="2"/>
+      <c r="E14" s="2"/>
+      <c r="F14" s="2"/>
+      <c r="G14" s="2"/>
+      <c r="H14" s="2"/>
+      <c r="I14" s="2"/>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A15" s="3"/>
-      <c r="B15" s="3"/>
-      <c r="C15" s="3"/>
-      <c r="D15" s="3"/>
-      <c r="E15" s="3"/>
-      <c r="F15" s="3"/>
-      <c r="G15" s="3"/>
-      <c r="H15" s="3"/>
-      <c r="I15" s="3"/>
+      <c r="A15" s="2"/>
+      <c r="B15" s="2"/>
+      <c r="C15" s="2"/>
+      <c r="D15" s="2"/>
+      <c r="E15" s="2"/>
+      <c r="F15" s="2"/>
+      <c r="G15" s="2"/>
+      <c r="H15" s="2"/>
+      <c r="I15" s="2"/>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A16" s="3"/>
-      <c r="B16" s="3"/>
-      <c r="C16" s="3"/>
-      <c r="D16" s="3"/>
-      <c r="E16" s="3"/>
-      <c r="F16" s="3"/>
-      <c r="G16" s="3"/>
-      <c r="H16" s="3"/>
-      <c r="I16" s="3"/>
+      <c r="A16" s="2"/>
+      <c r="B16" s="2"/>
+      <c r="C16" s="2"/>
+      <c r="D16" s="2"/>
+      <c r="E16" s="2"/>
+      <c r="F16" s="2"/>
+      <c r="G16" s="2"/>
+      <c r="H16" s="2"/>
+      <c r="I16" s="2"/>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A17" s="3"/>
-      <c r="B17" s="3"/>
-      <c r="C17" s="3"/>
-      <c r="D17" s="3"/>
-      <c r="E17" s="3"/>
-      <c r="F17" s="3"/>
-      <c r="G17" s="3"/>
-      <c r="H17" s="3"/>
-      <c r="I17" s="3"/>
+      <c r="A17" s="2"/>
+      <c r="B17" s="2"/>
+      <c r="C17" s="2"/>
+      <c r="D17" s="2"/>
+      <c r="E17" s="2"/>
+      <c r="F17" s="2"/>
+      <c r="G17" s="2"/>
+      <c r="H17" s="2"/>
+      <c r="I17" s="2"/>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A18" s="3"/>
-      <c r="B18" s="3"/>
-      <c r="C18" s="3"/>
-      <c r="D18" s="3"/>
-      <c r="E18" s="3"/>
-      <c r="F18" s="3"/>
-      <c r="G18" s="3"/>
-      <c r="H18" s="3"/>
-      <c r="I18" s="3"/>
+      <c r="A18" s="2"/>
+      <c r="B18" s="2"/>
+      <c r="C18" s="2"/>
+      <c r="D18" s="2"/>
+      <c r="E18" s="2"/>
+      <c r="F18" s="2"/>
+      <c r="G18" s="2"/>
+      <c r="H18" s="2"/>
+      <c r="I18" s="2"/>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A19" s="3"/>
-      <c r="B19" s="3"/>
-      <c r="C19" s="3"/>
-      <c r="D19" s="3"/>
-      <c r="E19" s="3"/>
-      <c r="F19" s="3"/>
-      <c r="G19" s="3"/>
-      <c r="H19" s="3"/>
-      <c r="I19" s="3"/>
+      <c r="A19" s="2"/>
+      <c r="B19" s="2"/>
+      <c r="C19" s="2"/>
+      <c r="D19" s="2"/>
+      <c r="E19" s="2"/>
+      <c r="F19" s="2"/>
+      <c r="G19" s="2"/>
+      <c r="H19" s="2"/>
+      <c r="I19" s="2"/>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A20" s="1"/>
@@ -773,8 +871,10 @@
   </sheetData>
   <hyperlinks>
     <hyperlink ref="F5" r:id="rId1" display="https://testdrive.andersenlab.com/" xr:uid="{3800D95D-B079-4EB9-B14D-C1544F5582C6}"/>
+    <hyperlink ref="I2" r:id="rId2" xr:uid="{457E9B33-0025-49D0-9557-36ACEC0D0634}"/>
+    <hyperlink ref="I4" r:id="rId3" xr:uid="{7283A6B7-EED8-4870-B000-F420B4289A70}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId4"/>
 </worksheet>
 </file>